--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H2">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I2">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J2">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N2">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O2">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P2">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q2">
-        <v>153.5714246513828</v>
+        <v>523.908303944102</v>
       </c>
       <c r="R2">
-        <v>614.285698605531</v>
+        <v>2095.633215776408</v>
       </c>
       <c r="S2">
-        <v>0.02670375867897178</v>
+        <v>0.1255598642440446</v>
       </c>
       <c r="T2">
-        <v>0.0161053896278617</v>
+        <v>0.09506428841938158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H3">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I3">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J3">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>0.235393</v>
       </c>
       <c r="N3">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O3">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P3">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q3">
-        <v>0.3068167679354999</v>
+        <v>0.706033291733</v>
       </c>
       <c r="R3">
-        <v>1.840900607613</v>
+        <v>4.236199750398</v>
       </c>
       <c r="S3">
-        <v>5.335081671743745E-05</v>
+        <v>0.0001692079388595257</v>
       </c>
       <c r="T3">
-        <v>4.82648735255901E-05</v>
+        <v>0.0001921668886722373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H4">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I4">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J4">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N4">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O4">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P4">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q4">
-        <v>0.7628407686609999</v>
+        <v>5.677321337611</v>
       </c>
       <c r="R4">
-        <v>4.577044611966</v>
+        <v>34.063928025666</v>
       </c>
       <c r="S4">
-        <v>0.0001326465248534846</v>
+        <v>0.001360626833080911</v>
       </c>
       <c r="T4">
-        <v>0.0001200013071884232</v>
+        <v>0.001545243248747242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H5">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I5">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J5">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N5">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O5">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P5">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q5">
-        <v>2.2115017079445</v>
+        <v>9.633873800473999</v>
       </c>
       <c r="R5">
-        <v>8.846006831778</v>
+        <v>38.535495201896</v>
       </c>
       <c r="S5">
-        <v>0.0003845468521317915</v>
+        <v>0.002308854197242946</v>
       </c>
       <c r="T5">
-        <v>0.0002319252865562779</v>
+        <v>0.001748087118813636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H6">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I6">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J6">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N6">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O6">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P6">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q6">
-        <v>128.534185308064</v>
+        <v>9.449564837405001</v>
       </c>
       <c r="R6">
-        <v>771.205111848384</v>
+        <v>56.69738902443</v>
       </c>
       <c r="S6">
-        <v>0.02235015970097583</v>
+        <v>0.002264682711111333</v>
       </c>
       <c r="T6">
-        <v>0.02021951485686933</v>
+        <v>0.002571965791660445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.3034235</v>
+        <v>2.999381</v>
       </c>
       <c r="H7">
-        <v>2.606847</v>
+        <v>5.998762</v>
       </c>
       <c r="I7">
-        <v>0.05019481880249994</v>
+        <v>0.1321681588507939</v>
       </c>
       <c r="J7">
-        <v>0.03724108001642075</v>
+        <v>0.1016951847733603</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N7">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O7">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P7">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q7">
-        <v>3.280078271985</v>
+        <v>2.106830200988333</v>
       </c>
       <c r="R7">
-        <v>19.68046963191</v>
+        <v>12.64098120593</v>
       </c>
       <c r="S7">
-        <v>0.0005703562288496199</v>
+        <v>0.0005049229264546501</v>
       </c>
       <c r="T7">
-        <v>0.0005159840644194295</v>
+        <v>0.0005734333060851458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>12.258607</v>
       </c>
       <c r="I8">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J8">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N8">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O8">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P8">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q8">
-        <v>481.4428416733351</v>
+        <v>713.7457142087314</v>
       </c>
       <c r="R8">
-        <v>2888.65705004001</v>
+        <v>4282.474285252389</v>
       </c>
       <c r="S8">
-        <v>0.08371566188793182</v>
+        <v>0.1710562980318378</v>
       </c>
       <c r="T8">
-        <v>0.07573503240881908</v>
+        <v>0.1942660421380028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>12.258607</v>
       </c>
       <c r="I9">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J9">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>0.235393</v>
       </c>
       <c r="N9">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O9">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P9">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q9">
-        <v>0.961863425850333</v>
+        <v>0.9618634258503334</v>
       </c>
       <c r="R9">
-        <v>8.656770832652997</v>
+        <v>8.656770832653001</v>
       </c>
       <c r="S9">
-        <v>0.0001672535685876708</v>
+        <v>0.0002305201888610742</v>
       </c>
       <c r="T9">
-        <v>0.0002269638825964521</v>
+        <v>0.0003926974210088197</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>12.258607</v>
       </c>
       <c r="I10">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J10">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N10">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O10">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P10">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q10">
-        <v>2.391488053471777</v>
+        <v>7.734490448805666</v>
       </c>
       <c r="R10">
-        <v>21.523392481246</v>
+        <v>69.610414039251</v>
       </c>
       <c r="S10">
-        <v>0.0004158437678658292</v>
+        <v>0.00185364798274416</v>
       </c>
       <c r="T10">
-        <v>0.0005643019572338366</v>
+        <v>0.00315773983128447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>12.258607</v>
       </c>
       <c r="I11">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J11">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N11">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O11">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P11">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q11">
-        <v>6.933006378336332</v>
+        <v>13.12469392935933</v>
       </c>
       <c r="R11">
-        <v>41.59803827001799</v>
+        <v>78.748163576156</v>
       </c>
       <c r="S11">
-        <v>0.001205545430519639</v>
+        <v>0.003145464150136507</v>
       </c>
       <c r="T11">
-        <v>0.001090620562409606</v>
+        <v>0.003572255907351996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>12.258607</v>
       </c>
       <c r="I12">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J12">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N12">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O12">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P12">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q12">
-        <v>402.9516791119004</v>
+        <v>12.87360088217834</v>
       </c>
       <c r="R12">
-        <v>3626.565112007103</v>
+        <v>115.862407939605</v>
       </c>
       <c r="S12">
-        <v>0.0700672304285599</v>
+        <v>0.003085287190391213</v>
       </c>
       <c r="T12">
-        <v>0.0950815626544336</v>
+        <v>0.005255870770903942</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>12.258607</v>
       </c>
       <c r="I13">
-        <v>0.1573595885849987</v>
+        <v>0.1800590985568305</v>
       </c>
       <c r="J13">
-        <v>0.1751248785129528</v>
+        <v>0.207816430111581</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N13">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O13">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P13">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q13">
-        <v>10.28296903385667</v>
+        <v>2.870237053317222</v>
       </c>
       <c r="R13">
-        <v>92.54672130470999</v>
+        <v>25.832133479855</v>
       </c>
       <c r="S13">
-        <v>0.001788053501533858</v>
+        <v>0.0006878810128598154</v>
       </c>
       <c r="T13">
-        <v>0.002426397047460195</v>
+        <v>0.001171824043028964</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H14">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I14">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J14">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N14">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O14">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P14">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q14">
-        <v>639.1152233752301</v>
+        <v>427.4666324056894</v>
       </c>
       <c r="R14">
-        <v>3834.691340251381</v>
+        <v>2564.799794434136</v>
       </c>
       <c r="S14">
-        <v>0.1111325152567413</v>
+        <v>0.1024466532209114</v>
       </c>
       <c r="T14">
-        <v>0.1005382320922221</v>
+        <v>0.1163471095803015</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H15">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I15">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J15">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>0.235393</v>
       </c>
       <c r="N15">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O15">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P15">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q15">
-        <v>1.276873400240333</v>
+        <v>0.5760658331073334</v>
       </c>
       <c r="R15">
-        <v>11.491860602163</v>
+        <v>5.184592497966</v>
       </c>
       <c r="S15">
-        <v>0.0002220290605561494</v>
+        <v>0.0001380599376953309</v>
       </c>
       <c r="T15">
-        <v>0.0003012944839299601</v>
+        <v>0.0002351888645652141</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H16">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I16">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J16">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N16">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O16">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P16">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q16">
-        <v>3.174699651118444</v>
+        <v>4.632233188524666</v>
       </c>
       <c r="R16">
-        <v>28.572296860066</v>
+        <v>41.690098696722</v>
       </c>
       <c r="S16">
-        <v>0.0005520324731904444</v>
+        <v>0.001110161007029907</v>
       </c>
       <c r="T16">
-        <v>0.0007491106736473012</v>
+        <v>0.00189118951584728</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H17">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I17">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J17">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N17">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O17">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P17">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q17">
-        <v>9.203563822346332</v>
+        <v>7.860458709105334</v>
       </c>
       <c r="R17">
-        <v>55.22138293407799</v>
+        <v>47.162752254632</v>
       </c>
       <c r="S17">
-        <v>0.001600361186049847</v>
+        <v>0.001883837536036623</v>
       </c>
       <c r="T17">
-        <v>0.001447798459188597</v>
+        <v>0.00213944570511357</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H18">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I18">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J18">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N18">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O18">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P18">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q18">
-        <v>534.918229358087</v>
+        <v>7.710077561923335</v>
       </c>
       <c r="R18">
-        <v>4814.264064222784</v>
+        <v>69.39069805731</v>
       </c>
       <c r="S18">
-        <v>0.09301422671690125</v>
+        <v>0.001847797190268311</v>
       </c>
       <c r="T18">
-        <v>0.1262207450079529</v>
+        <v>0.003147772846928455</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.424432333333333</v>
+        <v>2.447251333333333</v>
       </c>
       <c r="H19">
-        <v>16.273297</v>
+        <v>7.341754</v>
       </c>
       <c r="I19">
-        <v>0.2088948051635471</v>
+        <v>0.1078384849980104</v>
       </c>
       <c r="J19">
-        <v>0.232478222046779</v>
+        <v>0.1244625190315196</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N19">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O19">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P19">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q19">
-        <v>13.65063821115667</v>
+        <v>1.719002360312222</v>
       </c>
       <c r="R19">
-        <v>122.85574390041</v>
+        <v>15.47102124281</v>
       </c>
       <c r="S19">
-        <v>0.002373640470108099</v>
+        <v>0.0004119761060687892</v>
       </c>
       <c r="T19">
-        <v>0.003221041329838118</v>
+        <v>0.0007018125187636788</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H20">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I20">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J20">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N20">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O20">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P20">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q20">
-        <v>777.5305111517367</v>
+        <v>1064.446531175527</v>
       </c>
       <c r="R20">
-        <v>3110.122044606947</v>
+        <v>4257.786124702108</v>
       </c>
       <c r="S20">
-        <v>0.1352008499137577</v>
+        <v>0.2551052559069635</v>
       </c>
       <c r="T20">
-        <v>0.08154141864657395</v>
+        <v>0.1931461121820223</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H21">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I21">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J21">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>0.235393</v>
       </c>
       <c r="N21">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O21">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P21">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q21">
-        <v>1.5534100757635</v>
+        <v>1.4344775271205</v>
       </c>
       <c r="R21">
-        <v>9.320460454580999</v>
+        <v>8.606865162723</v>
       </c>
       <c r="S21">
-        <v>0.0002701146250797528</v>
+        <v>0.0003437868844804562</v>
       </c>
       <c r="T21">
-        <v>0.0002443645480805801</v>
+        <v>0.000390433548225991</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H22">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I22">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J22">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N22">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O22">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P22">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q22">
-        <v>3.862254805090333</v>
+        <v>11.5348524898235</v>
       </c>
       <c r="R22">
-        <v>23.173528830542</v>
+        <v>69.209114938941</v>
       </c>
       <c r="S22">
-        <v>0.0006715879630989852</v>
+        <v>0.002764442750370769</v>
       </c>
       <c r="T22">
-        <v>0.0006075653587827233</v>
+        <v>0.003139535685097478</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H23">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I23">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J23">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N23">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O23">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P23">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q23">
-        <v>11.1968099357965</v>
+        <v>19.573546499449</v>
       </c>
       <c r="R23">
-        <v>44.787239743186</v>
+        <v>78.29418599779599</v>
       </c>
       <c r="S23">
-        <v>0.001946956676208259</v>
+        <v>0.004690996158571152</v>
       </c>
       <c r="T23">
-        <v>0.001174235291588096</v>
+        <v>0.003551662105383096</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H24">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I24">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J24">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N24">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O24">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P24">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q24">
-        <v>650.7672311429013</v>
+        <v>19.1990782290925</v>
       </c>
       <c r="R24">
-        <v>3904.603386857408</v>
+        <v>115.194469374555</v>
       </c>
       <c r="S24">
-        <v>0.1131586239827607</v>
+        <v>0.004601251092811171</v>
       </c>
       <c r="T24">
-        <v>0.1023711914999168</v>
+        <v>0.005225571048645142</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.5992195</v>
+        <v>6.0939685</v>
       </c>
       <c r="H25">
-        <v>13.198439</v>
+        <v>12.187937</v>
       </c>
       <c r="I25">
-        <v>0.254135840761214</v>
+        <v>0.2685316059346027</v>
       </c>
       <c r="J25">
-        <v>0.1885511972474212</v>
+        <v>0.2066183831298982</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N25">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O25">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P25">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q25">
-        <v>16.607001863945</v>
+        <v>4.280535510384166</v>
       </c>
       <c r="R25">
-        <v>99.64201118367001</v>
+        <v>25.683213062305</v>
       </c>
       <c r="S25">
-        <v>0.002887707600308629</v>
+        <v>0.001025873141405661</v>
       </c>
       <c r="T25">
-        <v>0.002612421902479091</v>
+        <v>0.001165068560524234</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H26">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I26">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J26">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N26">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O26">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P26">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q26">
-        <v>224.7045383616156</v>
+        <v>382.8964152922594</v>
       </c>
       <c r="R26">
-        <v>1348.227230169694</v>
+        <v>2297.378491753556</v>
       </c>
       <c r="S26">
-        <v>0.03907273622094586</v>
+        <v>0.09176495497722992</v>
       </c>
       <c r="T26">
-        <v>0.03534792507471243</v>
+        <v>0.104216066964576</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H27">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I27">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J27">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>0.235393</v>
       </c>
       <c r="N27">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O27">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P27">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q27">
-        <v>0.4489319569513333</v>
+        <v>0.5160017782623334</v>
       </c>
       <c r="R27">
-        <v>4.040387612561999</v>
+        <v>4.644016004361</v>
       </c>
       <c r="S27">
-        <v>7.806250849675248E-05</v>
+        <v>0.0001236649862973289</v>
       </c>
       <c r="T27">
-        <v>0.0001059311927587028</v>
+        <v>0.0002106666727456097</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H28">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I28">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J28">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N28">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O28">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P28">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q28">
-        <v>1.116182799987111</v>
+        <v>4.149248966409667</v>
       </c>
       <c r="R28">
-        <v>10.045645199884</v>
+        <v>37.343240697687</v>
       </c>
       <c r="S28">
-        <v>0.0001940873844215292</v>
+        <v>0.0009944090082464614</v>
       </c>
       <c r="T28">
-        <v>0.0002633774974326477</v>
+        <v>0.001694002832878399</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H29">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I29">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J29">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N29">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O29">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P29">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q29">
-        <v>3.235852447795333</v>
+        <v>7.040880466695334</v>
       </c>
       <c r="R29">
-        <v>19.415114686772</v>
+        <v>42.245282800172</v>
       </c>
       <c r="S29">
-        <v>0.0005626660238572493</v>
+        <v>0.001687417414271667</v>
       </c>
       <c r="T29">
-        <v>0.0005090269680865197</v>
+        <v>0.001916374353221922</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H30">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I30">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J30">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N30">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O30">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P30">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q30">
-        <v>188.0702405340018</v>
+        <v>6.906178953598335</v>
       </c>
       <c r="R30">
-        <v>1692.632164806016</v>
+        <v>62.15561058238501</v>
       </c>
       <c r="S30">
-        <v>0.03270258337003022</v>
+        <v>0.001655134849611781</v>
       </c>
       <c r="T30">
-        <v>0.04437756010393053</v>
+        <v>0.002819567301569745</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.907159333333333</v>
+        <v>2.192086333333334</v>
       </c>
       <c r="H31">
-        <v>5.721477999999999</v>
+        <v>6.576259</v>
       </c>
       <c r="I31">
-        <v>0.07344467639578636</v>
+        <v>0.09659460225915097</v>
       </c>
       <c r="J31">
-        <v>0.08173629676394162</v>
+        <v>0.1114853154905085</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N31">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O31">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P31">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q31">
-        <v>4.799385533926666</v>
+        <v>1.539768935737222</v>
       </c>
       <c r="R31">
-        <v>43.19446980534</v>
+        <v>13.857920421635</v>
       </c>
       <c r="S31">
-        <v>0.0008345408880347446</v>
+        <v>0.0003690210234938177</v>
       </c>
       <c r="T31">
-        <v>0.001132475927020783</v>
+        <v>0.0006286373655167841</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H32">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I32">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J32">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N32">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O32">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P32">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q32">
-        <v>783.1429620615953</v>
+        <v>851.4889048432807</v>
       </c>
       <c r="R32">
-        <v>4698.857772369573</v>
+        <v>5108.933429059683</v>
       </c>
       <c r="S32">
-        <v>0.1361767706297025</v>
+        <v>0.2040678311310742</v>
       </c>
       <c r="T32">
-        <v>0.1231950139840629</v>
+        <v>0.231756739375603</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H33">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I33">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J33">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>0.235393</v>
       </c>
       <c r="N33">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O33">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P33">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q33">
-        <v>1.564623060550667</v>
+        <v>1.147489951647667</v>
       </c>
       <c r="R33">
-        <v>14.081607544956</v>
+        <v>10.327409564829</v>
       </c>
       <c r="S33">
-        <v>0.0002720643943190967</v>
+        <v>0.0002750074420764643</v>
       </c>
       <c r="T33">
-        <v>0.0003691926681884035</v>
+        <v>0.0004684826686774242</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H34">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I34">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J34">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N34">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O34">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P34">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q34">
-        <v>3.890133730976888</v>
+        <v>9.227141642560333</v>
       </c>
       <c r="R34">
-        <v>35.011203578792</v>
+        <v>83.04427478304299</v>
       </c>
       <c r="S34">
-        <v>0.000676435688584332</v>
+        <v>0.002211376768183574</v>
       </c>
       <c r="T34">
-        <v>0.0009179264245559536</v>
+        <v>0.003767140561679223</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H35">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I35">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J35">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N35">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O35">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P35">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q35">
-        <v>11.27763190382267</v>
+        <v>15.65758089728467</v>
       </c>
       <c r="R35">
-        <v>67.665791422936</v>
+        <v>93.94548538370799</v>
       </c>
       <c r="S35">
-        <v>0.001961010399646911</v>
+        <v>0.003752495841453517</v>
       </c>
       <c r="T35">
-        <v>0.001774066916774862</v>
+        <v>0.004261652588335612</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H36">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I36">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J36">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N36">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O36">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P36">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q36">
-        <v>655.4646662739343</v>
+        <v>15.35803031575167</v>
       </c>
       <c r="R36">
-        <v>5899.181996465409</v>
+        <v>138.222272841765</v>
       </c>
       <c r="S36">
-        <v>0.1139754372306288</v>
+        <v>0.00368070554901425</v>
       </c>
       <c r="T36">
-        <v>0.1546652066854532</v>
+        <v>0.006270182163792331</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.646854666666667</v>
+        <v>4.874783666666667</v>
       </c>
       <c r="H37">
-        <v>19.940564</v>
+        <v>14.624351</v>
       </c>
       <c r="I37">
-        <v>0.2559702702919538</v>
+        <v>0.2148080494006116</v>
       </c>
       <c r="J37">
-        <v>0.2848683254124845</v>
+        <v>0.2479221674631326</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N37">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O37">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P37">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q37">
-        <v>16.72687623721334</v>
+        <v>3.424153667779444</v>
       </c>
       <c r="R37">
-        <v>150.54188613492</v>
+        <v>30.817383010015</v>
       </c>
       <c r="S37">
-        <v>0.002908551949072191</v>
+        <v>0.0008206326688095519</v>
       </c>
       <c r="T37">
-        <v>0.003946918733449166</v>
+        <v>0.001397970105044942</v>
       </c>
     </row>
   </sheetData>
